--- a/assets/data/MSME Country Indicators - Jordan Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Jordan Summary.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
   <si>
     <t>Jordan</t>
   </si>
@@ -19,6 +19,9 @@
     <t>MSME Participation on the Economy</t>
   </si>
   <si>
+    <t>Source Type: Statistical Institution (Most Widely Used)</t>
+  </si>
+  <si>
     <t>Micro</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>24.7</t>
   </si>
   <si>
+    <t>65.7</t>
+  </si>
+  <si>
     <t>Employment (absolute #)</t>
   </si>
   <si>
@@ -1019,6 +1025,12 @@
   </si>
   <si>
     <t>http://www.dos.gov.jo/dos_home_a/main/linked-html/economic_census/census_2011.pdf</t>
+  </si>
+  <si>
+    <t>DOS</t>
+  </si>
+  <si>
+    <t>Department of Statistics, Jordan. Number of Active Economic Establishments by Governorate and Employees Category, Jordan 2011. Available at http://www.dos.gov.jo/dos_home_a/main/linked-html/economic_census/census_2011.pdf</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1038,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1037,6 +1049,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -1069,26 +1087,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="1"/>
     <xf numFmtId="0" fontId="2"/>
     <xf numFmtId="0" fontId="3"/>
     <xf numFmtId="0" fontId="4"/>
+    <xf numFmtId="0" fontId="5"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="2"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="3"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="4"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="name" xfId="1"/>
     <cellStyle name="title" xfId="2"/>
-    <cellStyle name="source" xfId="3"/>
-    <cellStyle name="HyperLink" xfId="4"/>
+    <cellStyle name="title_" xfId="3"/>
+    <cellStyle name="source" xfId="4"/>
+    <cellStyle name="HyperLink" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -1096,7 +1117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1112,1542 +1133,1560 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="0" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="B14" s="0" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="C14" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="D14" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="D24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="E24" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>137</v>
+      <c r="A42" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>163</v>
+      <c r="A48" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>193</v>
+        <v>87</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>223</v>
+        <v>47</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>244</v>
+        <v>47</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>61</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>263</v>
+        <v>48</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>267</v>
+        <v>64</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>251</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>274</v>
+      <c r="A78" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>287</v>
+        <v>147</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>289</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>229</v>
+      <c r="A82" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>295</v>
+      <c r="A84" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>127</v>
+        <v>280</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>85</v>
+        <v>281</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>301</v>
+      <c r="A86" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>128</v>
+        <v>289</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>85</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>127</v>
+      <c r="A88" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>305</v>
+        <v>130</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>307</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>61</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>310</v>
+        <v>129</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>249</v>
+        <v>130</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>314</v>
+      <c r="A92" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>316</v>
+        <v>243</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>242</v>
+        <v>130</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>127</v>
+        <v>307</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>127</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>81</v>
+      <c r="A96" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>166</v>
+        <v>312</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>321</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C104" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C99" s="0" t="s">
+      <c r="D104" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="D99" s="0" t="s">
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="B105" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105" s="0" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="s">
+      <c r="D105" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="E105" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="C100" s="2" t="s">
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="s">
+      <c r="C106" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="3" t="s">
+      <c r="D106" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="4" t="s">
+      <c r="E106" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="3" t="s">
-        <v>127</v>
+    <row r="108">
+      <c r="A108" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A103" r:id="rId1"/>
+    <hyperlink ref="A109" r:id="rId1"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/assets/data/MSME Country Indicators - Jordan Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Jordan Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
   <si>
     <t>Jordan</t>
   </si>
@@ -94,6 +94,39 @@
     <t>Source: DOS, 2011</t>
   </si>
   <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>5-19</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>20-99</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>&gt;=100</t>
+  </si>
+  <si>
     <t>Sector Distribution Details</t>
   </si>
   <si>
@@ -398,9 +431,6 @@
   </si>
   <si>
     <t>Other transport equipment</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>1</t>
@@ -1117,7 +1147,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1224,1397 +1254,1362 @@
         <v>26</v>
       </c>
     </row>
+    <row r="18">
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="2" t="s">
+      <c r="A21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="0" t="s">
+      <c r="D29" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+      <c r="E29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="0" t="s">
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="C30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="D30" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+      <c r="E30" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>139</v>
+      <c r="A48" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="D54" s="0" t="s">
+      <c r="A54" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E54" s="0" t="s">
-        <v>165</v>
+      <c r="E54" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>195</v>
+        <v>98</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>219</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>231</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>246</v>
+        <v>58</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>43</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>265</v>
+        <v>59</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>276</v>
+      <c r="A84" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>285</v>
+        <v>93</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>289</v>
+        <v>157</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>291</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>231</v>
+      <c r="A88" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>130</v>
+        <v>261</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E90" s="0" t="s">
-        <v>297</v>
+      <c r="A90" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>130</v>
+        <v>289</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>129</v>
+        <v>290</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>87</v>
+        <v>291</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>303</v>
+      <c r="A92" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>243</v>
+        <v>298</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>130</v>
+        <v>299</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>48</v>
+        <v>300</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>87</v>
+        <v>301</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>129</v>
+      <c r="A94" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>307</v>
+        <v>140</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>309</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>130</v>
+        <v>305</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="D98" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C97" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E97" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
+      <c r="E98" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E98" s="0" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="B101" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>83</v>
+      <c r="B102" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>168</v>
-      </c>
       <c r="C103" s="0" t="s">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>323</v>
+        <v>54</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B104" s="0" t="s">
         <v>324</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>312</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>325</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="E104" s="0" t="s">
         <v>326</v>
@@ -2625,68 +2620,170 @@
         <v>327</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>91</v>
+        <v>328</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>328</v>
+        <v>254</v>
       </c>
       <c r="D105" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="B106" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="s">
+      <c r="B107" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B108" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="B109" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E109" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D106" s="2" t="s">
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="4" t="s">
+      <c r="B110" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C110" s="0" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="4" t="s">
+      <c r="D110" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E110" s="0" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="5" t="s">
+    <row r="111">
+      <c r="A111" s="0" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="4" t="s">
-        <v>129</v>
+      <c r="B111" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="s">
-        <v>338</v>
+      <c r="A113" s="4" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>339</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A109" r:id="rId1"/>
+    <hyperlink ref="A115" r:id="rId1"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/assets/data/MSME Country Indicators - Jordan Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Jordan Summary.xlsx
@@ -1060,7 +1060,7 @@
     <t>DOS</t>
   </si>
   <si>
-    <t>Department of Statistics, Jordan. Number of Active Economic Establishments by Governorate and Employees Category, Jordan 2011. Available at http://www.dos.gov.jo/dos_home_a/main/linked-html/economic_census/census_2011.pdf</t>
+    <t>Ministry of Industry and Trade, Jordan. Also, United Nations Development Programme (UNDP), "Jordan Small Businesses and Human Development", 2011, p.64. Available at http://planipolis.iiep.unesco.org/upload/Jordan/Jordan_NHDR_2011.pdf</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1147,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2758,12 +2758,12 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="5" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="116">
@@ -2771,20 +2771,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="s">
+    <row r="117">
+      <c r="A117" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="4" t="s">
+    <row r="121">
+      <c r="A121" s="4" t="s">
         <v>349</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A115" r:id="rId1"/>
-  </hyperlinks>
   <headerFooter/>
 </worksheet>
 </file>
--- a/assets/data/MSME Country Indicators - Jordan Summary.xlsx
+++ b/assets/data/MSME Country Indicators - Jordan Summary.xlsx
@@ -46,25 +46,25 @@
     <t>Enterprises density (per 1000 people)</t>
   </si>
   <si>
-    <t>23.2</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>25.2</t>
+    <t>23.19</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>25.25</t>
   </si>
   <si>
     <t>Employment (% of total)</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>24.7</t>
-  </si>
-  <si>
-    <t>65.7</t>
+    <t>40.97</t>
+  </si>
+  <si>
+    <t>24.71</t>
+  </si>
+  <si>
+    <t>65.68</t>
   </si>
   <si>
     <t>Employment (absolute #)</t>
@@ -82,13 +82,13 @@
     <t>Enterprises (% of total)</t>
   </si>
   <si>
-    <t>91.5</t>
+    <t>91.47</t>
   </si>
   <si>
     <t>8.1</t>
   </si>
   <si>
-    <t>99.6</t>
+    <t>99.57</t>
   </si>
   <si>
     <t>Source: DOS, 2011</t>
